--- a/new_arch/validate_top5_samsung_portfolio.xlsx
+++ b/new_arch/validate_top5_samsung_portfolio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="96" uniqueCount="21">
   <si>
     <t>Run</t>
   </si>
@@ -134,7 +134,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.42578125" customWidth="true"/>
     <col min="7" max="7" width="12.85546875" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="9.85546875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -169,147 +169,147 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0">
-        <v>3830862301.87251</v>
+        <v>4038685328.2825012</v>
       </c>
       <c r="E2" s="0">
-        <v>0.16898281228994097</v>
+        <v>0.1659368996429621</v>
       </c>
       <c r="F2" s="0">
-        <v>646</v>
+        <v>151</v>
       </c>
       <c r="G2" s="0">
-        <v>2011800348.825</v>
+        <v>3025989415.8079977</v>
       </c>
       <c r="H2" s="0">
-        <v>0.062307495335129602</v>
+        <v>0.10144286857744578</v>
       </c>
       <c r="I2" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0">
-        <v>3657595243.2850037</v>
+        <v>3248623400.2400036</v>
       </c>
       <c r="E3" s="0">
-        <v>0.14171773995130443</v>
+        <v>0.17490001850130077</v>
       </c>
       <c r="F3" s="0">
-        <v>643</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0">
-        <v>1917737046.2000003</v>
+        <v>2199888655.784503</v>
       </c>
       <c r="H3" s="0">
-        <v>0.079853508666469425</v>
+        <v>0.13612309647850662</v>
       </c>
       <c r="I3" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0">
-        <v>3541858585.0375023</v>
+        <v>3191480581.6974955</v>
       </c>
       <c r="E4" s="0">
-        <v>0.16765935995170589</v>
+        <v>0.23069566183556189</v>
       </c>
       <c r="F4" s="0">
-        <v>609</v>
+        <v>171</v>
       </c>
       <c r="G4" s="0">
-        <v>1917721912.0999994</v>
+        <v>2558324738.4027476</v>
       </c>
       <c r="H4" s="0">
-        <v>0.060451811006633986</v>
+        <v>0.1853005462258468</v>
       </c>
       <c r="I4" s="0">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0">
-        <v>3316950223.4824934</v>
+        <v>3043748875.1799946</v>
       </c>
       <c r="E5" s="0">
-        <v>0.2565719693028985</v>
+        <v>0.15993027752859101</v>
       </c>
       <c r="F5" s="0">
-        <v>709</v>
+        <v>139</v>
       </c>
       <c r="G5" s="0">
-        <v>1577349877.7250001</v>
+        <v>1674314110.7644992</v>
       </c>
       <c r="H5" s="0">
-        <v>0.13661334001679626</v>
+        <v>0.28741704453241446</v>
       </c>
       <c r="I5" s="0">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0">
-        <v>3126129978.125001</v>
+        <v>3021655031.0475082</v>
       </c>
       <c r="E6" s="0">
-        <v>0.16898092390550457</v>
+        <v>0.16675748423554859</v>
       </c>
       <c r="F6" s="0">
-        <v>625</v>
+        <v>114</v>
       </c>
       <c r="G6" s="0">
-        <v>2025362566.0000012</v>
+        <v>2653489487.796751</v>
       </c>
       <c r="H6" s="0">
-        <v>0.065297336613434898</v>
+        <v>0.13217994139332268</v>
       </c>
       <c r="I6" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
